--- a/AlcoholDataInfo.xlsx
+++ b/AlcoholDataInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cf3b5bac90b7856/Documents/MDSI/36103 Statistical Thinking for Data Science/Assignment 2/Alcohol Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cf3b5bac90b7856/Documents/MDSI/36103 Statistical Thinking for Data Science/Assignment 2/STD_AT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{463AF260-CE5D-42DB-9159-777B0DFE7643}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{34A3231F-A7B8-4CA6-9EF0-5AD355BAB1FF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{463AF260-CE5D-42DB-9159-777B0DFE7643}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2D2D278F-8DE8-439B-ABF7-76506DD88521}"/>
   <bookViews>
-    <workbookView xWindow="39680" yWindow="1520" windowWidth="29020" windowHeight="12920" xr2:uid="{E96359EF-E26A-4C67-BAF3-BA67AA8D14AA}"/>
+    <workbookView xWindow="44000" yWindow="5250" windowWidth="23030" windowHeight="12520" xr2:uid="{E96359EF-E26A-4C67-BAF3-BA67AA8D14AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,10 +588,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="109.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="143.69999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -675,7 +675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="109.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="101.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -744,7 +744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
